--- a/src/test/java/Subscriptions/Data/Flat_Symbol_Positions.xlsx
+++ b/src/test/java/Subscriptions/Data/Flat_Symbol_Positions.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajmal.syed.LOGICIELSERVICE\eclipse-workspace\OMS_API\src\test\java\Subscriptions_V3\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_OMSAPI\src\test\java\Subscriptions\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11CB542-C303-42CE-86C1-26117F1AF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611AEDD9-7EAA-4BD9-88AC-10FAC9F6A7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="239" activeTab="1" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="239" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Flat_Equity_Position" sheetId="11" r:id="rId1"/>
-    <sheet name="Flat_Option_Position" sheetId="12" r:id="rId2"/>
+    <sheet name="Flat_Equity_Position (2)" sheetId="13" r:id="rId2"/>
+    <sheet name="Flat_Option_Position" sheetId="12" r:id="rId3"/>
+    <sheet name="Flat_Option_Position (2)" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="74">
   <si>
     <t>Content_Type</t>
   </si>
@@ -208,6 +210,57 @@
   </si>
   <si>
     <t>Flat_Position_Not_Acc_BoxvsShort</t>
+  </si>
+  <si>
+    <t>PositionID</t>
+  </si>
+  <si>
+    <t>Flat_Position_Acc_BoxvsShort_TC0001</t>
+  </si>
+  <si>
+    <t>LSL-BF.B-10005-LONG</t>
+  </si>
+  <si>
+    <t>LSL-BF.B-1LOC-LOCA-123456-M</t>
+  </si>
+  <si>
+    <t>Flat_Option_Position_TC0001</t>
+  </si>
+  <si>
+    <t>Flat_Option_Position_TC0002</t>
+  </si>
+  <si>
+    <t>Position_ID</t>
+  </si>
+  <si>
+    <t>LSL-BRK.B Aug 30, 2099 88.00 PUT-1LOC-LOCA-123456-M</t>
+  </si>
+  <si>
+    <t>LSL-BRK.B Aug 28, 2099 90.00 PUT-1LOC-LOCA-123456-M</t>
+  </si>
+  <si>
+    <t>2099-08-28T13:20:00.000Z</t>
+  </si>
+  <si>
+    <t>Flat_Position_Acc_Not_BoxvsShort_TC0002</t>
+  </si>
+  <si>
+    <t>Flat_Position_Acc_BoxvsShort_TC0003</t>
+  </si>
+  <si>
+    <t>Flat_Position_Acc_BoxvsShort_TC0004</t>
+  </si>
+  <si>
+    <t>Flat_Position_Acc_BoxvsShort_TC0005</t>
+  </si>
+  <si>
+    <t>LSL-A-10005-LONG</t>
+  </si>
+  <si>
+    <t>LSL-BF.B-10005-SHORT</t>
+  </si>
+  <si>
+    <t>LSL-A-10005-SHORT</t>
   </si>
 </sst>
 </file>
@@ -272,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -296,6 +349,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,10 +666,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C45151-A49D-48A7-8212-5AD46F21641F}">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="56.42578125" customWidth="1"/>
+    <col min="10" max="10" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.7109375" customWidth="1"/>
+    <col min="13" max="13" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>200</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>200</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>200</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>200</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="4">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132632DD-239A-476B-978A-FA4DDC659495}">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,17 +1423,248 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704A2892-B986-47A8-928C-2C6A41B4450F}">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="14" width="17.28515625" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.28515625" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="8">
+        <v>88</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>200</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="8">
+        <v>90</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U3" s="4">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704A2892-B986-47A8-928C-2C6A41B4450F}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72609F76-4D63-47C9-BB90-8889A5A855ED}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -1351,7 +1954,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
